--- a/data/trans_orig/P02F-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F4AF85F-FA04-4361-A84E-39EBCFC7E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0940910-D84E-4250-B377-099941B3EE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF1770E0-9238-4655-A392-19F035860006}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D29216E5-2A28-4742-A775-328AB766B175}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="186">
   <si>
     <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2012 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -94,16 +94,16 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>95,15%</t>
+    <t>95,12%</t>
   </si>
   <si>
     <t>97,32%</t>
@@ -112,10 +112,10 @@
     <t>97,3%</t>
   </si>
   <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -124,10 +124,10 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>3,65%</t>
@@ -136,16 +136,16 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>4,88%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -166,400 +166,382 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>97,94%</t>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>97,59%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>94,87%</t>
   </si>
   <si>
     <t>96,88%</t>
   </si>
   <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>5,13%</t>
   </si>
   <si>
     <t>3,12%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1025,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD31C6A9-CFFB-414D-83A8-EAC9C629D4A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BD93D0-35C7-4C65-B15E-DD6C8C174486}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1848,13 +1830,13 @@
         <v>6776526</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,10 +1881,10 @@
         <v>171079</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>97</v>
@@ -1980,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D918BC-7F76-4277-8428-3F9E85FB24C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28F6002-5986-41A5-8684-76E25791246F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2185,13 +2167,13 @@
         <v>1685546</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2188,13 @@
         <v>12585</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>39</v>
@@ -2221,13 +2203,13 @@
         <v>42074</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -2236,13 +2218,13 @@
         <v>54659</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,7 +2328,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2343,13 @@
         <v>2026673</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H9" s="7">
         <v>1815</v>
@@ -2376,13 +2358,13 @@
         <v>1888045</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M9" s="7">
         <v>3721</v>
@@ -2391,13 +2373,13 @@
         <v>3914718</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2394,13 @@
         <v>40911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -2427,13 +2409,13 @@
         <v>85941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>118</v>
@@ -2442,13 +2424,13 @@
         <v>126852</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2537,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2552,7 +2534,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2549,13 @@
         <v>536151</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>500</v>
@@ -2582,13 +2564,13 @@
         <v>520973</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>990</v>
@@ -2597,13 +2579,13 @@
         <v>1057124</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2600,13 @@
         <v>8948</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -2633,13 +2615,13 @@
         <v>24110</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -2648,13 +2630,13 @@
         <v>33058</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2755,13 @@
         <v>3299748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>3165</v>
@@ -2788,13 +2770,13 @@
         <v>3357640</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="M17" s="7">
         <v>6306</v>
@@ -2803,13 +2785,13 @@
         <v>6657387</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2806,13 @@
         <v>62445</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H18" s="7">
         <v>141</v>
@@ -2839,13 +2821,13 @@
         <v>152124</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M18" s="7">
         <v>200</v>
@@ -2854,13 +2836,13 @@
         <v>214569</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,7 +2917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602C7DF0-FFA4-4E09-8464-89BA2DAB249F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0350B3AA-D018-483A-8355-13FE431C111C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2952,7 +2934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3059,10 +3041,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3074,10 +3056,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3089,10 +3071,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3116,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3131,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3167,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3182,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3265,10 +3247,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3280,10 +3262,10 @@
         <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3295,10 +3277,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3337,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3352,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,7 +3370,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3403,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,10 +3453,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3486,10 +3468,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3501,10 +3483,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3528,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3543,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3558,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3594,7 +3576,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3609,7 +3591,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,10 +3659,10 @@
         <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3692,10 +3674,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3707,10 +3689,10 @@
         <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3749,22 +3731,22 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,22 +3782,22 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P02F-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BEBE162-FA6E-4EC0-A564-727AF4F366EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C883712-B435-46F3-BABA-9ECBE3A5284A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{774EAE06-524B-4CA9-A4FC-1D3B76F30AB8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B996A0FE-E762-48AB-B641-C0E82DB41D37}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF37FD45-D022-40B4-8BDA-B867DBBA6EC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5573A2BF-6788-483C-8BFC-179EF71CD0A4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1219,7 +1219,7 @@
         <v>3388</v>
       </c>
       <c r="N7" s="7">
-        <v>3608338</v>
+        <v>3608339</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>16</v>
@@ -1321,7 +1321,7 @@
         <v>3479</v>
       </c>
       <c r="N9" s="7">
-        <v>3707212</v>
+        <v>3707213</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1664,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D99D27-1CC5-4418-B9EF-895590F7D950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8382998-EF09-4A2A-8E14-2BDE62D4FB80}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
